--- a/data/RS_CampaignE2E.xlsx
+++ b/data/RS_CampaignE2E.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279440C-48FC-4301-ADFA-D81CD7DAF3EF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD72AC8-69F4-4B8B-847B-4BFAED68A69D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="639" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="639" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="98">
   <si>
     <t>campTypeIndex</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>./</t>
-  </si>
-  <si>
-    <t>To personalize your email (Hi John), upload the customer’s First name, Last name or both in the Email template along with the email address. Then, type (FirstName) or (LastName) anywhere in the Body Copy and the email will pull the name associated with the email address that was uploaded in the file. Example greeting to enter: Hi (FirstName),</t>
   </si>
   <si>
     <t>Thank you</t>
@@ -173,28 +167,6 @@
 ID's(Multi Separate with comma))</t>
   </si>
   <si>
-    <t>Reg_Test MLC ENG</t>
-  </si>
-  <si>
-    <t>Brand : Reg_Test MLC ENG</t>
-  </si>
-  <si>
-    <t>Description: Reg_Test MLC ENG</t>
-  </si>
-  <si>
-    <t>Sender: Reg_Test MLC ENG</t>
-  </si>
-  <si>
-    <t>Subject: Reg_Test MLC ENG</t>
-  </si>
-  <si>
-    <t>Banner: Reg_Test MLC ENG</t>
-  </si>
-  <si>
-    <t>Hello (FirstName) (LastName)
-Reg_Test MLC ENG</t>
-  </si>
-  <si>
     <t>Reg_Test Brand ENG</t>
   </si>
   <si>
@@ -217,15 +189,6 @@
 Reg_Test Brand ENG</t>
   </si>
   <si>
-    <t>Reg_Test Loc ENG</t>
-  </si>
-  <si>
-    <t>Description: Reg_Test Loc ENG</t>
-  </si>
-  <si>
-    <t>Sender: Reg_Test Loc ENG</t>
-  </si>
-  <si>
     <t>Subject: Reg_Test Loc ENG</t>
   </si>
   <si>
@@ -242,11 +205,6 @@
     <t>Copy an existing campaign to quickly create a new one.</t>
   </si>
   <si>
-    <t>This info is required and will appear in the footer of the email like this:
-                                                                                              ____________________________________________________________
-                                                                                               © 2018 Brand name • 1111 Main St City Name,ST 44444 • 222-222-2222</t>
-  </si>
-  <si>
     <t>uploadE-TempName</t>
   </si>
   <si>
@@ -298,9 +256,6 @@
     <t xml:space="preserve">end Date(MM/DD/YYYY)  </t>
   </si>
   <si>
-    <t>05/28/2018</t>
-  </si>
-  <si>
     <t>uploadLogoName</t>
   </si>
   <si>
@@ -323,6 +278,54 @@
   </si>
   <si>
     <t>Existing Camp Tool Tip</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>Reg_Test Loc DUE</t>
+  </si>
+  <si>
+    <t>Description: Reg_Test Loc DUE</t>
+  </si>
+  <si>
+    <t>Sender: Reg_Test Loc DUE</t>
+  </si>
+  <si>
+    <t>This info is required and will appear in the footer of the email like this: ____________________________________________________________ © 2018 Brand name • 1111 Main St City Name,ST 44444 • 222-222-2222</t>
+  </si>
+  <si>
+    <t>To personalize your email (Hi John), upload the customer’s First name, Last name or both in the Email template along with the email address. Then, type (FirstName) or (LastName) anywhere in the Body Copy and the email will pull the name associated with the email address that was uploaded in the file. Example greeting to enter: Hi (FirstName),
+Once campaign is created, check the Live Preview to view sample email with the personalized name.</t>
+  </si>
+  <si>
+    <t>Subject: Reg_Test Brand DEU</t>
+  </si>
+  <si>
+    <t>Banner: Reg_Test Brand DEU</t>
+  </si>
+  <si>
+    <t>Hello (FirstName) (LastName)
+Reg_Test Brand DEU</t>
+  </si>
+  <si>
+    <t>E-Mail-Vorlage.xlsx</t>
+  </si>
+  <si>
+    <t>Brand : Reg_Test Brand DEU</t>
+  </si>
+  <si>
+    <t>Description: Reg_Test Brand DEU</t>
+  </si>
+  <si>
+    <t>Sender: Reg_Test Brand DEU</t>
+  </si>
+  <si>
+    <t>Um Ihre E-Mail (Hallo Max) zu personalisieren, laden Sie den Vornamen des Kunden, den Nachnamen oder beide in der E-Mail-Vorlage zusammen mit der E-Mail-Adresse hoch.
+                                                                                                Geben Sie dann (Vorname) oder (Nachname) an einer beliebigen Stelle im Textfeld ein, und die E-Mail wird den Namen der E-Mail-Adresse anzeigen.
+                                                                                                die in der Datei hochgeladen wurde. Beispielansage zur Eingabe: Hallo (Vorname),
+Sobald die Kampagne erstellt wurde, sehen Sie sich die Live-Vorschau an, um eine Beispiel-E-Mail mit dem personalisierten Namen anzuzeigen.
+Übersetzt mit www.DeepL.com/Translator</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -390,6 +393,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,6 +694,7 @@
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.28515625" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -716,25 +723,25 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -749,6 +756,9 @@
       <c r="J3" s="4">
         <v>1</v>
       </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -757,6 +767,9 @@
       <c r="J4" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -765,16 +778,19 @@
       <c r="J5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -782,15 +798,21 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -798,7 +820,10 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -806,7 +831,10 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -814,23 +842,26 @@
         <v>12</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
@@ -839,10 +870,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -850,7 +884,10 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -858,84 +895,92 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="120.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -949,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0200146-B3F6-478E-BE48-14E6C2EC7AB7}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,8 +1009,8 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46" customWidth="1"/>
-    <col min="11" max="11" width="40.42578125" customWidth="1"/>
+    <col min="10" max="10" width="52.5703125" customWidth="1"/>
+    <col min="11" max="11" width="56.85546875" customWidth="1"/>
     <col min="12" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -995,25 +1040,25 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1023,9 +1068,12 @@
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1036,6 +1084,9 @@
       <c r="J4" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K4" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1044,16 +1095,19 @@
       <c r="J5" s="4">
         <v>1</v>
       </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1061,10 +1115,10 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1072,7 +1126,10 @@
         <v>4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1080,7 +1137,10 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1088,7 +1148,10 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1096,32 +1159,38 @@
         <v>12</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1129,7 +1198,10 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1137,133 +1209,158 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="K21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="K23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="K24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="K25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1271,7 +1368,7 @@
         <v>38</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1284,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104AFF54-C748-4FCE-A24E-F31A44A98DE3}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1396,7 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
     <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1330,25 +1427,25 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1382,13 +1479,13 @@
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1396,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1404,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -1412,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1420,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1428,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1439,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1464,7 +1561,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1472,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1480,15 +1577,15 @@
         <v>13</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1496,16 +1593,14 @@
         <v>14</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="6">
-        <v>43247</v>
-      </c>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">

--- a/data/RS_CampaignE2E.xlsx
+++ b/data/RS_CampaignE2E.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD72AC8-69F4-4B8B-847B-4BFAED68A69D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE273771-D830-4A4D-BAEE-4B05C61A6489}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="639" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
   <si>
     <t>campTypeIndex</t>
   </si>
@@ -326,6 +326,25 @@
                                                                                                 die in der Datei hochgeladen wurde. Beispielansage zur Eingabe: Hallo (Vorname),
 Sobald die Kampagne erstellt wurde, sehen Sie sich die Live-Vorschau an, um eine Beispiel-E-Mail mit dem personalisierten Namen anzuzeigen.
 Übersetzt mit www.DeepL.com/Translator</t>
+  </si>
+  <si>
+    <t>Reg_Test Location ENG</t>
+  </si>
+  <si>
+    <t>Description: Reg_Test Location ENG</t>
+  </si>
+  <si>
+    <t>Sender: Reg_Test Location ENG</t>
+  </si>
+  <si>
+    <t>Subject: Reg_Test Location ENG</t>
+  </si>
+  <si>
+    <t>Banner: Reg_Test Location ENG</t>
+  </si>
+  <si>
+    <t>Hello (FirstName) (LastName)
+Reg_Test Location ENG</t>
   </si>
 </sst>
 </file>
@@ -678,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>85</v>
@@ -820,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>86</v>
@@ -831,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>87</v>
@@ -884,7 +903,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>54</v>
@@ -895,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>55</v>
@@ -914,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>56</v>
@@ -1322,7 +1341,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>

--- a/data/RS_CampaignE2E.xlsx
+++ b/data/RS_CampaignE2E.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE273771-D830-4A4D-BAEE-4B05C61A6489}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB10E41-3812-46E4-B7C6-695F413EDA81}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="639" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0200146-B3F6-478E-BE48-14E6C2EC7AB7}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/RS_CampaignE2E.xlsx
+++ b/data/RS_CampaignE2E.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB10E41-3812-46E4-B7C6-695F413EDA81}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6D11A0-F467-4B78-9A38-124C0ACB6FB8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="639" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="639" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
   <si>
     <t>campTypeIndex</t>
   </si>
@@ -165,28 +165,6 @@
   <si>
     <t>ToField(E-Mail ID(Single)          OR
 ID's(Multi Separate with comma))</t>
-  </si>
-  <si>
-    <t>Reg_Test Brand ENG</t>
-  </si>
-  <si>
-    <t>Brand : Reg_Test Brand ENG</t>
-  </si>
-  <si>
-    <t>Description: Reg_Test Brand ENG</t>
-  </si>
-  <si>
-    <t>Sender: Reg_Test Brand ENG</t>
-  </si>
-  <si>
-    <t>Subject: Reg_Test Brand ENG</t>
-  </si>
-  <si>
-    <t>Banner: Reg_Test Brand ENG</t>
-  </si>
-  <si>
-    <t>Hello (FirstName) (LastName)
-Reg_Test Brand ENG</t>
   </si>
   <si>
     <t>Subject: Reg_Test Loc ENG</t>
@@ -345,6 +323,77 @@
   <si>
     <t>Hello (FirstName) (LastName)
 Reg_Test Location ENG</t>
+  </si>
+  <si>
+    <t>AddLocToolTip</t>
+  </si>
+  <si>
+    <t>AddAllLocToolTip</t>
+  </si>
+  <si>
+    <t>RemoveLocToolTip</t>
+  </si>
+  <si>
+    <t>RemoveAllLocToolTip</t>
+  </si>
+  <si>
+    <t>Add selected locations</t>
+  </si>
+  <si>
+    <t>Add all locations</t>
+  </si>
+  <si>
+    <t>Remove selected locations</t>
+  </si>
+  <si>
+    <t>Remove all locations</t>
+  </si>
+  <si>
+    <t>Reg_Test MLC ENG</t>
+  </si>
+  <si>
+    <t>MLC : Reg_Test MLC ENG</t>
+  </si>
+  <si>
+    <t>Description: Reg_Test MLC ENG</t>
+  </si>
+  <si>
+    <t>Sender: Reg_Test MLC ENG</t>
+  </si>
+  <si>
+    <t>Subject: Reg_Test MLC ENG</t>
+  </si>
+  <si>
+    <t>Banner: Reg_Test MLC ENG</t>
+  </si>
+  <si>
+    <t>Hello (FirstName) (LastName)
+Reg_Test MLC ENG</t>
+  </si>
+  <si>
+    <t>EmailTemplate-MLC.xlsx</t>
+  </si>
+  <si>
+    <t>Reg_Test Brand ENG</t>
+  </si>
+  <si>
+    <t>Brand : Reg_Test Brand ENG</t>
+  </si>
+  <si>
+    <t>Description: Reg_Test Brand ENG</t>
+  </si>
+  <si>
+    <t>Sender: Reg_Test Brand ENG</t>
+  </si>
+  <si>
+    <t>Subject: Reg_Test Brand ENG</t>
+  </si>
+  <si>
+    <t>Banner: Reg_Test Brand ENG</t>
+  </si>
+  <si>
+    <t>Hello (FirstName) (LastName)
+Reg_Test Brand ENG</t>
   </si>
 </sst>
 </file>
@@ -697,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,25 +791,25 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -787,7 +836,7 @@
         <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -803,13 +852,13 @@
     </row>
     <row r="6" spans="1:16" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -817,21 +866,21 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -839,10 +888,10 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -850,10 +899,10 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -864,18 +913,18 @@
         <v>45</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -889,13 +938,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -903,10 +952,10 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -914,10 +963,10 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="120.75" x14ac:dyDescent="0.25">
@@ -925,7 +974,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,10 +982,10 @@
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -962,7 +1011,7 @@
         <v>26</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -976,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1013,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0200146-B3F6-478E-BE48-14E6C2EC7AB7}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,25 +1108,25 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1104,7 +1153,7 @@
         <v>42</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1120,13 +1169,13 @@
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1134,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1145,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1156,10 +1205,10 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1167,10 +1216,10 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1181,18 +1230,18 @@
         <v>45</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -1203,13 +1252,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1217,10 +1266,10 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1228,10 +1277,10 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -1239,10 +1288,10 @@
         <v>13</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1250,15 +1299,15 @@
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>43</v>
@@ -1272,7 +1321,7 @@
         <v>28</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1280,15 +1329,15 @@
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1296,10 +1345,10 @@
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1307,10 +1356,10 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1318,10 +1367,10 @@
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1329,10 +1378,10 @@
         <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1346,7 +1395,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1359,27 +1408,27 @@
         <v>27</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1387,7 +1436,7 @@
         <v>38</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104AFF54-C748-4FCE-A24E-F31A44A98DE3}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1464,7 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" customWidth="1"/>
+    <col min="10" max="10" width="41.85546875" customWidth="1"/>
     <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1446,25 +1495,25 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1498,13 +1547,13 @@
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1512,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1520,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -1528,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1536,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1547,7 +1596,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1555,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1580,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1588,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1645,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1604,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1621,9 +1670,12 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1631,9 +1683,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1659,6 +1714,38 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/RS_CampaignE2E.xlsx
+++ b/data/RS_CampaignE2E.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6D11A0-F467-4B78-9A38-124C0ACB6FB8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DE51C39F-DAB8-4D72-A730-8D7E9E94F865}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="639" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="639" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Location" sheetId="1" r:id="rId1"/>
-    <sheet name="Brand" sheetId="2" r:id="rId2"/>
-    <sheet name="MLC" sheetId="3" r:id="rId3"/>
+    <sheet name="Location" r:id="rId1" sheetId="1"/>
+    <sheet name="Brand" r:id="rId2" sheetId="2"/>
+    <sheet name="MLC" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="119">
   <si>
     <t>campTypeIndex</t>
   </si>
@@ -297,13 +297,6 @@
   </si>
   <si>
     <t>Sender: Reg_Test Brand DEU</t>
-  </si>
-  <si>
-    <t>Um Ihre E-Mail (Hallo Max) zu personalisieren, laden Sie den Vornamen des Kunden, den Nachnamen oder beide in der E-Mail-Vorlage zusammen mit der E-Mail-Adresse hoch.
-                                                                                                Geben Sie dann (Vorname) oder (Nachname) an einer beliebigen Stelle im Textfeld ein, und die E-Mail wird den Namen der E-Mail-Adresse anzeigen.
-                                                                                                die in der Datei hochgeladen wurde. Beispielansage zur Eingabe: Hallo (Vorname),
-Sobald die Kampagne erstellt wurde, sehen Sie sich die Live-Vorschau an, um eine Beispiel-E-Mail mit dem personalisierten Namen anzuzeigen.
-Übersetzt mit www.DeepL.com/Translator</t>
   </si>
   <si>
     <t>Reg_Test Location ENG</t>
@@ -400,6 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,35 +435,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -486,10 +480,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -524,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -559,7 +553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -653,21 +647,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -684,7 +678,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -736,15 +730,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
@@ -752,17 +746,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.28515625" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="39.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -850,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="36.75" x14ac:dyDescent="0.25">
+    <row ht="36.75" r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
@@ -866,13 +860,13 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
@@ -888,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>79</v>
@@ -899,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>80</v>
@@ -927,7 +921,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -952,7 +946,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>47</v>
@@ -963,13 +957,13 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="120.75" x14ac:dyDescent="0.25">
+    <row ht="120.75" r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,12 +971,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33.75" r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>49</v>
@@ -1006,7 +1000,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+    <row ht="36.75" r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1020,7 +1014,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+    <row ht="48.75" r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1054,32 +1048,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0200146-B3F6-478E-BE48-14E6C2EC7AB7}">
-  <dimension ref="A1:P35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0200146-B3F6-478E-BE48-14E6C2EC7AB7}">
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.5703125" customWidth="1"/>
-    <col min="11" max="11" width="56.85546875" customWidth="1"/>
-    <col min="12" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="52.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="56.85546875" collapsed="true"/>
+    <col min="12" max="16" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1134,7 +1128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
@@ -1183,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>67</v>
@@ -1194,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>87</v>
@@ -1205,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>88</v>
@@ -1216,7 +1210,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>89</v>
@@ -1244,7 +1238,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -1266,7 +1260,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>83</v>
@@ -1277,29 +1271,27 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row ht="132.75" r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K17" s="7"/>
+    </row>
+    <row ht="30" r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>85</v>
@@ -1316,7 +1308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1390,7 +1382,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+    <row ht="36.75" r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1403,7 +1395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+    <row ht="48.75" r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1440,14 +1432,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104AFF54-C748-4FCE-A24E-F31A44A98DE3}">
-  <dimension ref="A1:P32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104AFF54-C748-4FCE-A24E-F31A44A98DE3}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
@@ -1455,18 +1447,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.85546875" customWidth="1"/>
-    <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="12" max="16" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1545,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
@@ -1561,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1569,15 +1561,15 @@
         <v>4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row ht="30" r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1585,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1607,7 +1599,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="39.75" r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1621,7 +1613,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1629,7 +1621,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1637,10 +1629,10 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="190.5" r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1648,12 +1640,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1670,7 +1662,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="48.75" x14ac:dyDescent="0.25">
+    <row ht="48.75" r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1683,7 +1675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="60.75" x14ac:dyDescent="0.25">
+    <row ht="60.75" r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,38 +1710,38 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/RS_CampaignE2E.xlsx
+++ b/data/RS_CampaignE2E.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{DE51C39F-DAB8-4D72-A730-8D7E9E94F865}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5EBFDF7E-DF86-4A2F-BDF9-76EE32E7F4F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
     <workbookView activeTab="1" tabRatio="639" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="120">
   <si>
     <t>campTypeIndex</t>
   </si>
@@ -379,14 +379,18 @@
     <t>Sender: Reg_Test Brand ENG</t>
   </si>
   <si>
-    <t>Subject: Reg_Test Brand ENG</t>
-  </si>
-  <si>
-    <t>Banner: Reg_Test Brand ENG</t>
-  </si>
-  <si>
     <t>Hello (FirstName) (LastName)
 Reg_Test Brand ENG</t>
+  </si>
+  <si>
+    <t>Subject: Reg_Test Brand ENG (FirstName) (LastName)</t>
+  </si>
+  <si>
+    <t>Banner: Reg_Test Brand ENG (FirstName) (LastName)</t>
+  </si>
+  <si>
+    <t>Thank you
+(FirstName) (LastName)</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0200146-B3F6-478E-BE48-14E6C2EC7AB7}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1264,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>83</v>
@@ -1271,7 +1275,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>84</v>
@@ -1291,18 +1295,18 @@
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>43</v>

--- a/data/RS_CampaignE2E.xlsx
+++ b/data/RS_CampaignE2E.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{5EBFDF7E-DF86-4A2F-BDF9-76EE32E7F4F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1E915D5A-E802-43B6-895A-C061F7573E9D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="639" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView activeTab="2" tabRatio="639" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Location" r:id="rId1" sheetId="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
   <si>
     <t>campTypeIndex</t>
   </si>
@@ -299,25 +299,6 @@
     <t>Sender: Reg_Test Brand DEU</t>
   </si>
   <si>
-    <t>Reg_Test Location ENG</t>
-  </si>
-  <si>
-    <t>Description: Reg_Test Location ENG</t>
-  </si>
-  <si>
-    <t>Sender: Reg_Test Location ENG</t>
-  </si>
-  <si>
-    <t>Subject: Reg_Test Location ENG</t>
-  </si>
-  <si>
-    <t>Banner: Reg_Test Location ENG</t>
-  </si>
-  <si>
-    <t>Hello (FirstName) (LastName)
-Reg_Test Location ENG</t>
-  </si>
-  <si>
     <t>AddLocToolTip</t>
   </si>
   <si>
@@ -352,12 +333,6 @@
   </si>
   <si>
     <t>Sender: Reg_Test MLC ENG</t>
-  </si>
-  <si>
-    <t>Subject: Reg_Test MLC ENG</t>
-  </si>
-  <si>
-    <t>Banner: Reg_Test MLC ENG</t>
   </si>
   <si>
     <t>Hello (FirstName) (LastName)
@@ -391,6 +366,30 @@
   <si>
     <t>Thank you
 (FirstName) (LastName)</t>
+  </si>
+  <si>
+    <t>DF - German</t>
+  </si>
+  <si>
+    <t>Reg_Test Loc ENG</t>
+  </si>
+  <si>
+    <t>Description: Reg_Test Loc ENG</t>
+  </si>
+  <si>
+    <t>Sender: Reg_Test Loc ENG</t>
+  </si>
+  <si>
+    <t>Subject: Reg_Test Loc ENG (FirstName) (LastName)</t>
+  </si>
+  <si>
+    <t>Banner: Reg_Test Loc ENG (FirstName) (LastName)</t>
+  </si>
+  <si>
+    <t>Subject: Reg_Test MLC ENG (FirstName) (LastName)</t>
+  </si>
+  <si>
+    <t>Banner: Reg_Test MLC ENG (FirstName) (LastName)</t>
   </si>
 </sst>
 </file>
@@ -744,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>78</v>
@@ -875,7 +874,7 @@
         <v>74</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>75</v>
@@ -886,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>79</v>
@@ -897,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>80</v>
@@ -945,12 +944,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row ht="30" r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>47</v>
@@ -961,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>48</v>
@@ -980,18 +979,18 @@
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>43</v>
@@ -1016,7 +1015,6 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="4"/>
     </row>
     <row ht="48.75" r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1049,6 +1047,9 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1060,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0200146-B3F6-478E-BE48-14E6C2EC7AB7}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J3:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>67</v>
@@ -1192,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>87</v>
@@ -1203,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>88</v>
@@ -1214,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>89</v>
@@ -1264,7 +1265,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>83</v>
@@ -1275,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>84</v>
@@ -1295,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>85</v>
@@ -1306,7 +1307,7 @@
         <v>54</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>43</v>
@@ -1445,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104AFF54-C748-4FCE-A24E-F31A44A98DE3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1565,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row ht="30" r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1573,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1581,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1617,23 +1618,23 @@
         <v>8</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row ht="30" r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row ht="30" r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row customHeight="1" ht="190.5" r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1649,15 +1650,15 @@
         <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="30" r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1714,34 +1715,34 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/RS_CampaignE2E.xlsx
+++ b/data/RS_CampaignE2E.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{7F593AE8-1920-40D4-BA9D-EABCFCF809F5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7944B36B-7FA7-402B-9F52-F5FD9BA03BB9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
     <workbookView tabRatio="639" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
@@ -368,9 +368,6 @@
 (FirstName) (LastName)</t>
   </si>
   <si>
-    <t>DF - German</t>
-  </si>
-  <si>
     <t>Reg_Test Loc ENG</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>Banner: Reg_Test MLC ENG (FirstName) (LastName)</t>
+  </si>
+  <si>
+    <t>DF</t>
   </si>
 </sst>
 </file>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>78</v>
@@ -874,7 +874,7 @@
         <v>74</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>75</v>
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>79</v>
@@ -896,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>80</v>
@@ -949,7 +949,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>47</v>
@@ -960,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>48</v>
@@ -1626,7 +1626,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row ht="30" r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row customHeight="1" ht="190.5" r="17" spans="1:10" x14ac:dyDescent="0.25">
